--- a/biology/Botanique/Parc_du_mont_de_la_tour_d'incendie/Parc_du_mont_de_la_tour_d'incendie.xlsx
+++ b/biology/Botanique/Parc_du_mont_de_la_tour_d'incendie/Parc_du_mont_de_la_tour_d'incendie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_du_mont_de_la_tour_d%27incendie</t>
+          <t>Parc_du_mont_de_la_tour_d'incendie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Palotorninvuorenpuisto (en français : parc du mont de la tour d'incendie) est un parc de la ville de Kotka en Finlande[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Palotorninvuorenpuisto (en français : parc du mont de la tour d'incendie) est un parc de la ville de Kotka en Finlande.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_du_mont_de_la_tour_d%27incendie</t>
+          <t>Parc_du_mont_de_la_tour_d'incendie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc est situé dans le quartier de Kotkansaari au centre de Kotka.
 Le parc du mont de la tour d'incendie tient son nom de la tour d'incendie construite a cet endroit en 1895.
 La tour sera détruite dans un incendie en 1911.
-L'aspect actuel du parc résulte des travaux de rénovation et d'aménagement réalisés en 2005-2006[1].
+L'aspect actuel du parc résulte des travaux de rénovation et d'aménagement réalisés en 2005-2006.
 </t>
         </is>
       </c>
